--- a/MMS/Defect Report/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Defect Report/Monitor app/Performance tests-swetha.xlsx
@@ -993,6 +993,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1008,8 +1010,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1832,17 +1832,17 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
@@ -1971,12 +1971,12 @@
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
@@ -1999,12 +1999,12 @@
       <c r="F21" s="8">
         <v>1</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3337,10 +3337,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D66"/>
+  <dimension ref="B2:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3348,50 +3348,57 @@
     <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="35.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="2:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>180</v>
       </c>
       <c r="C3" s="25"/>
-    </row>
-    <row r="4" spans="2:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="2:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>181</v>
       </c>
       <c r="C4" s="25"/>
-    </row>
-    <row r="5" spans="2:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="2:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="25"/>
-    </row>
-    <row r="6" spans="2:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="2:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>204</v>
       </c>
       <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="2:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="2:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>182</v>
       </c>
       <c r="C7" s="25"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>85</v>
       </c>
@@ -3399,105 +3406,105 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>80</v>
       </c>
@@ -3505,7 +3512,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>81</v>
       </c>
@@ -3513,220 +3520,230 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3"/>
+      <c r="E44" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3"/>
+      <c r="E45" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>202</v>
       </c>
@@ -3743,7 +3760,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E56">
       <formula1>"Pass, Fail, clarification"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MMS/Defect Report/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Defect Report/Monitor app/Performance tests-swetha.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="209">
   <si>
     <t>Speed</t>
   </si>
@@ -790,12 +790,15 @@
   <si>
     <t>Select QR codes from history of bar code scanner</t>
   </si>
+  <si>
+    <t>HELLO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +996,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1008,8 +1013,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,7 +1102,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1134,7 +1136,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1310,14 +1311,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
@@ -1326,7 +1327,7 @@
     <col min="6" max="6" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
@@ -1398,7 +1399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
@@ -1408,7 +1409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
@@ -1418,7 +1419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
@@ -1428,7 +1429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
@@ -1438,7 +1439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
@@ -1448,7 +1449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
@@ -1461,7 +1462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
@@ -1474,7 +1475,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
@@ -1487,7 +1488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
@@ -1500,7 +1501,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="60">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
@@ -1513,7 +1514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
@@ -1523,7 +1524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="30">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
@@ -1533,49 +1534,49 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
@@ -1588,14 +1589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
@@ -1608,7 +1609,7 @@
     <col min="12" max="12" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="45">
       <c r="B2" s="13" t="s">
         <v>40</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="8">
         <v>2</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="B7" s="8">
         <v>1</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8" s="8">
         <v>1</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="B9" s="8">
         <v>2</v>
       </c>
@@ -1831,20 +1832,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="1:12" ht="45.75" customHeight="1">
+      <c r="B10" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="B11" s="8">
         <v>2</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="B12" s="8">
         <v>1</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="B13" s="8">
         <v>2</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="B14" s="8">
         <v>3</v>
       </c>
@@ -1961,7 +1962,7 @@
       </c>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="B15" s="8">
         <v>4</v>
       </c>
@@ -1971,19 +1972,19 @@
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="B16" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1999,15 +2000,15 @@
       <c r="F21" s="8">
         <v>1</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="B22" s="8">
         <v>2</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="30">
       <c r="B23" s="8">
         <v>3</v>
       </c>
@@ -2054,7 +2055,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="45">
       <c r="B24" s="8">
         <v>1</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -2092,7 +2093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2100,7 +2101,7 @@
       <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -2124,7 +2125,7 @@
     <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="9" customFormat="1" ht="90">
       <c r="B1" s="9" t="s">
         <v>129</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="75">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -2221,7 +2222,7 @@
       </c>
       <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="C3" s="5">
         <v>3</v>
       </c>
@@ -2260,7 +2261,7 @@
       </c>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="75">
       <c r="C4" s="5">
         <v>1</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="75">
       <c r="C5" s="5">
         <v>2</v>
       </c>
@@ -2337,7 +2338,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="30">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -2387,7 +2388,7 @@
       </c>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="60">
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -2438,7 +2439,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="60">
       <c r="C9" s="5">
         <v>3</v>
       </c>
@@ -2505,7 +2506,7 @@
       </c>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="C10" s="5">
         <v>4</v>
       </c>
@@ -2557,7 +2558,7 @@
       </c>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="60">
       <c r="C11" s="5">
         <v>5</v>
       </c>
@@ -2602,7 +2603,7 @@
       </c>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="30">
       <c r="C12" s="5">
         <v>6</v>
       </c>
@@ -2648,7 +2649,7 @@
       </c>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="C13" s="5">
         <v>7</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="75">
       <c r="C14" s="5">
         <v>8</v>
       </c>
@@ -2718,7 +2719,7 @@
       </c>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:22" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="120">
       <c r="C15" s="5">
         <v>9</v>
       </c>
@@ -2745,7 +2746,7 @@
       <c r="R15" s="5"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2759,7 +2760,7 @@
       <c r="R16" s="5"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2774,7 +2775,7 @@
       <c r="R17" s="5"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:21">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2789,7 +2790,7 @@
       <c r="R18" s="5"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2804,499 +2805,499 @@
       <c r="R19" s="5"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21">
       <c r="D20" s="5"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="R20" s="5"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:21">
       <c r="D21" s="5"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="R21" s="5"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:21">
       <c r="D22" s="5"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="R22" s="5"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:21">
       <c r="D23" s="5"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="R23" s="5"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:21">
       <c r="D24" s="5"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="R24" s="5"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21">
       <c r="D25" s="5"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="R25" s="5"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21">
       <c r="D26" s="5"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="R26" s="5"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:21">
       <c r="D27" s="5"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="R27" s="5"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:21">
       <c r="D28" s="5"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="R28" s="5"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:21">
       <c r="D29" s="5"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="R29" s="5"/>
       <c r="U29" s="9"/>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:21">
       <c r="D30" s="5"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="R30" s="5"/>
       <c r="U30" s="9"/>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:21">
       <c r="D31" s="5"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="R31" s="5"/>
       <c r="U31" s="9"/>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:21">
       <c r="D32" s="5"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="R32" s="5"/>
       <c r="U32" s="9"/>
     </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:21">
       <c r="D33" s="5"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="R33" s="5"/>
       <c r="U33" s="9"/>
     </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:21">
       <c r="D34" s="5"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="R34" s="5"/>
       <c r="U34" s="9"/>
     </row>
-    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:21">
       <c r="D35" s="5"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="R35" s="5"/>
       <c r="U35" s="9"/>
     </row>
-    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:21">
       <c r="D36" s="5"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="R36" s="5"/>
       <c r="U36" s="9"/>
     </row>
-    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:21">
       <c r="D37" s="5"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="R37" s="5"/>
       <c r="U37" s="9"/>
     </row>
-    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:21">
       <c r="D38" s="5"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="R38" s="5"/>
       <c r="U38" s="9"/>
     </row>
-    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:21">
       <c r="D39" s="5"/>
       <c r="F39"/>
       <c r="G39"/>
       <c r="R39" s="5"/>
       <c r="U39" s="9"/>
     </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:21">
       <c r="D40" s="5"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="R40" s="5"/>
       <c r="U40" s="9"/>
     </row>
-    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:21">
       <c r="D41" s="5"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="R41" s="5"/>
       <c r="U41" s="9"/>
     </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:21">
       <c r="D42" s="5"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="R42" s="5"/>
       <c r="U42" s="9"/>
     </row>
-    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:21">
       <c r="D43" s="5"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="R43" s="5"/>
       <c r="U43" s="9"/>
     </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:21">
       <c r="D44" s="5"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="R44" s="5"/>
       <c r="U44" s="9"/>
     </row>
-    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:21">
       <c r="D45" s="5"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="R45" s="5"/>
       <c r="U45" s="9"/>
     </row>
-    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:21">
       <c r="D46" s="5"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="R46" s="5"/>
       <c r="U46" s="9"/>
     </row>
-    <row r="47" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:21">
       <c r="D47" s="5"/>
       <c r="F47"/>
       <c r="G47"/>
       <c r="R47" s="5"/>
       <c r="U47" s="9"/>
     </row>
-    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:21">
       <c r="D48" s="5"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="R48" s="5"/>
       <c r="U48" s="9"/>
     </row>
-    <row r="49" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:21">
       <c r="D49" s="5"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="U49" s="9"/>
     </row>
-    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:21">
       <c r="D50" s="5"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="U50" s="9"/>
     </row>
-    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:21">
       <c r="D51" s="5"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="U51" s="9"/>
     </row>
-    <row r="52" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:21">
       <c r="D52" s="5"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="U52" s="9"/>
     </row>
-    <row r="53" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:21">
       <c r="D53" s="5"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="U53" s="9"/>
     </row>
-    <row r="54" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:21">
       <c r="D54" s="5"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="U54" s="9"/>
     </row>
-    <row r="55" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:21">
       <c r="F55"/>
       <c r="G55"/>
       <c r="U55" s="9"/>
     </row>
-    <row r="56" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:21">
       <c r="F56"/>
       <c r="G56"/>
       <c r="U56" s="9"/>
     </row>
-    <row r="57" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:21">
       <c r="F57"/>
       <c r="G57"/>
       <c r="U57" s="9"/>
     </row>
-    <row r="58" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:21">
       <c r="F58"/>
       <c r="G58"/>
       <c r="U58" s="9"/>
     </row>
-    <row r="59" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:21">
       <c r="F59"/>
       <c r="G59"/>
       <c r="U59" s="9"/>
     </row>
-    <row r="60" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:21">
       <c r="F60"/>
       <c r="G60"/>
       <c r="U60" s="9"/>
     </row>
-    <row r="61" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:21">
       <c r="F61"/>
       <c r="G61"/>
       <c r="U61" s="9"/>
     </row>
-    <row r="62" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:21">
       <c r="F62"/>
       <c r="G62"/>
       <c r="U62" s="9"/>
     </row>
-    <row r="63" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:21">
       <c r="F63"/>
       <c r="G63"/>
       <c r="U63" s="9"/>
     </row>
-    <row r="64" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:21">
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7">
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7">
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7">
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7">
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7">
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7">
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7">
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7">
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7">
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7">
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7">
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7">
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7">
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7">
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7">
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7">
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7">
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7">
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7">
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7">
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7">
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7">
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7">
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7">
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7">
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7">
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7">
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7">
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7">
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7">
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7">
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7">
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7">
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7">
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7">
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7">
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7">
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7">
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7">
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7">
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:7">
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:7">
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:7">
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:7">
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:7">
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:7">
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:7">
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:7">
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:7">
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:7">
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:7">
       <c r="F115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:7">
       <c r="F116"/>
       <c r="G116"/>
     </row>
@@ -3336,14 +3337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -3352,46 +3353,46 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="2:4" s="26" customFormat="1">
+      <c r="B2" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" s="24" customFormat="1">
       <c r="B3" s="24" t="s">
         <v>180</v>
       </c>
       <c r="C3" s="25"/>
     </row>
-    <row r="4" spans="2:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" s="24" customFormat="1">
       <c r="B4" s="24" t="s">
         <v>181</v>
       </c>
       <c r="C4" s="25"/>
     </row>
-    <row r="5" spans="2:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" s="24" customFormat="1">
       <c r="B5" s="24" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="25"/>
     </row>
-    <row r="6" spans="2:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" s="24" customFormat="1">
       <c r="B6" s="24" t="s">
         <v>204</v>
       </c>
       <c r="C6" s="25"/>
     </row>
-    <row r="7" spans="2:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" s="24" customFormat="1">
       <c r="B7" s="24" t="s">
         <v>182</v>
       </c>
       <c r="C7" s="25"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="B8" s="2" t="s">
         <v>85</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4">
       <c r="B9" s="2" t="s">
         <v>77</v>
       </c>
@@ -3410,42 +3411,42 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4">
       <c r="B11" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4">
       <c r="B12" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4">
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4">
       <c r="B15" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
         <v>168</v>
       </c>
@@ -3453,12 +3454,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" s="2" t="s">
         <v>169</v>
       </c>
@@ -3466,12 +3467,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
         <v>170</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
         <v>171</v>
       </c>
@@ -3487,17 +3488,17 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="B27" s="2" t="s">
         <v>80</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
         <v>81</v>
       </c>
@@ -3513,67 +3514,67 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="B31" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4">
       <c r="B32" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="30">
       <c r="B33" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="30">
       <c r="B34" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="30">
       <c r="B35" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="30">
       <c r="B36" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" ht="30">
       <c r="B37" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4">
       <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4">
       <c r="B41" s="2" t="s">
         <v>72</v>
       </c>
@@ -3581,7 +3582,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4">
       <c r="B42" s="2" t="s">
         <v>124</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" ht="30">
       <c r="B43" s="2" t="s">
         <v>125</v>
       </c>
@@ -3600,7 +3601,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="45">
       <c r="B44" s="2" t="s">
         <v>130</v>
       </c>
@@ -3611,7 +3612,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="30">
       <c r="B45" s="3" t="s">
         <v>137</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="30">
       <c r="B46" s="3" t="s">
         <v>152</v>
       </c>
@@ -3633,42 +3634,42 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="45">
       <c r="B47" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4">
       <c r="B48" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" ht="60">
       <c r="B50" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" ht="60">
       <c r="B52" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" ht="60">
       <c r="B53" s="3" t="s">
         <v>186</v>
       </c>
@@ -3676,69 +3677,74 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="B57" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3">
       <c r="B59" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" ht="30">
       <c r="B60" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3">
       <c r="B61" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" ht="45">
       <c r="B62" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" ht="45">
       <c r="B63" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" ht="30">
       <c r="B64" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3">
       <c r="B65" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3">
       <c r="B66" s="2" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="C67" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3753,20 +3759,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:D6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="48.5703125" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" ht="345">
       <c r="C3" s="3" t="s">
         <v>103</v>
       </c>
@@ -3774,7 +3780,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" ht="240">
       <c r="C4" s="3" t="s">
         <v>102</v>
       </c>
@@ -3782,11 +3788,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4">
       <c r="C5" s="2"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="3:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" ht="330">
       <c r="C6" s="3" t="s">
         <v>105</v>
       </c>

--- a/MMS/Defect Report/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Defect Report/Monitor app/Performance tests-swetha.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
@@ -797,8 +797,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,6 +1102,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1136,6 +1137,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1311,14 +1313,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
@@ -1327,7 +1329,7 @@
     <col min="6" max="6" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -1375,7 +1377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1389,7 +1391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
@@ -1399,7 +1401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
@@ -1409,7 +1411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
@@ -1419,7 +1421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
@@ -1429,7 +1431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
@@ -1439,7 +1441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
@@ -1449,7 +1451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
@@ -1462,7 +1464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
@@ -1475,7 +1477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
@@ -1488,7 +1490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
@@ -1501,7 +1503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60">
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
@@ -1514,7 +1516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
@@ -1524,7 +1526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30">
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
@@ -1534,49 +1536,49 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
@@ -1589,14 +1591,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
@@ -1609,7 +1611,7 @@
     <col min="12" max="12" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="45">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>40</v>
       </c>
@@ -1644,7 +1646,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1673,7 +1675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -1699,7 +1701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>2</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -1745,7 +1747,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>1</v>
       </c>
@@ -1774,7 +1776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>1</v>
       </c>
@@ -1803,7 +1805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>2</v>
       </c>
@@ -1832,7 +1834,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45.75" customHeight="1">
+    <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
         <v>54</v>
       </c>
@@ -1845,7 +1847,7 @@
       <c r="I10" s="29"/>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>2</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>1</v>
       </c>
@@ -1903,7 +1905,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>2</v>
       </c>
@@ -1932,7 +1934,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>3</v>
       </c>
@@ -1962,7 +1964,7 @@
       </c>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>4</v>
       </c>
@@ -1979,12 +1981,12 @@
       <c r="I15" s="35"/>
       <c r="J15" s="36"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -2008,7 +2010,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>2</v>
       </c>
@@ -2031,7 +2033,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30">
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>3</v>
       </c>
@@ -2055,7 +2057,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="45">
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>1</v>
       </c>
@@ -2075,7 +2077,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -2093,7 +2095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2101,7 +2103,7 @@
       <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -2125,7 +2127,7 @@
     <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="9" customFormat="1" ht="90">
+    <row r="1" spans="1:22" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>129</v>
       </c>
@@ -2184,7 +2186,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="75">
+    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -2222,7 +2224,7 @@
       </c>
       <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C3" s="5">
         <v>3</v>
       </c>
@@ -2261,7 +2263,7 @@
       </c>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:22" ht="75">
+    <row r="4" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="C4" s="5">
         <v>1</v>
       </c>
@@ -2302,7 +2304,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="75">
+    <row r="5" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="C5" s="5">
         <v>2</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30">
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -2388,7 +2390,7 @@
       </c>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:22" ht="60">
+    <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -2439,7 +2441,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -2470,7 +2472,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="60">
+    <row r="9" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>3</v>
       </c>
@@ -2506,7 +2508,7 @@
       </c>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C10" s="5">
         <v>4</v>
       </c>
@@ -2558,7 +2560,7 @@
       </c>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:22" ht="60">
+    <row r="11" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="C11" s="5">
         <v>5</v>
       </c>
@@ -2603,7 +2605,7 @@
       </c>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:22" ht="30">
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="5">
         <v>6</v>
       </c>
@@ -2649,7 +2651,7 @@
       </c>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C13" s="5">
         <v>7</v>
       </c>
@@ -2680,7 +2682,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="75">
+    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="C14" s="5">
         <v>8</v>
       </c>
@@ -2719,7 +2721,7 @@
       </c>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:22" ht="120">
+    <row r="15" spans="1:22" ht="120" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>9</v>
       </c>
@@ -2746,7 +2748,7 @@
       <c r="R15" s="5"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2760,7 +2762,7 @@
       <c r="R16" s="5"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="3:21">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2775,7 +2777,7 @@
       <c r="R17" s="5"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="3:21">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2790,7 +2792,7 @@
       <c r="R18" s="5"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="3:21">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2805,499 +2807,499 @@
       <c r="R19" s="5"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="3:21">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D20" s="5"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="R20" s="5"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="3:21">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D21" s="5"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="R21" s="5"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="3:21">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D22" s="5"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="R22" s="5"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="3:21">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D23" s="5"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="R23" s="5"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="3:21">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D24" s="5"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="R24" s="5"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="3:21">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D25" s="5"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="R25" s="5"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="3:21">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D26" s="5"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="R26" s="5"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="3:21">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D27" s="5"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="R27" s="5"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="3:21">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D28" s="5"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="R28" s="5"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="3:21">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D29" s="5"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="R29" s="5"/>
       <c r="U29" s="9"/>
     </row>
-    <row r="30" spans="3:21">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D30" s="5"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="R30" s="5"/>
       <c r="U30" s="9"/>
     </row>
-    <row r="31" spans="3:21">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D31" s="5"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="R31" s="5"/>
       <c r="U31" s="9"/>
     </row>
-    <row r="32" spans="3:21">
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D32" s="5"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="R32" s="5"/>
       <c r="U32" s="9"/>
     </row>
-    <row r="33" spans="4:21">
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="5"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="R33" s="5"/>
       <c r="U33" s="9"/>
     </row>
-    <row r="34" spans="4:21">
+    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D34" s="5"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="R34" s="5"/>
       <c r="U34" s="9"/>
     </row>
-    <row r="35" spans="4:21">
+    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D35" s="5"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="R35" s="5"/>
       <c r="U35" s="9"/>
     </row>
-    <row r="36" spans="4:21">
+    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D36" s="5"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="R36" s="5"/>
       <c r="U36" s="9"/>
     </row>
-    <row r="37" spans="4:21">
+    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D37" s="5"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="R37" s="5"/>
       <c r="U37" s="9"/>
     </row>
-    <row r="38" spans="4:21">
+    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D38" s="5"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="R38" s="5"/>
       <c r="U38" s="9"/>
     </row>
-    <row r="39" spans="4:21">
+    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D39" s="5"/>
       <c r="F39"/>
       <c r="G39"/>
       <c r="R39" s="5"/>
       <c r="U39" s="9"/>
     </row>
-    <row r="40" spans="4:21">
+    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D40" s="5"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="R40" s="5"/>
       <c r="U40" s="9"/>
     </row>
-    <row r="41" spans="4:21">
+    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D41" s="5"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="R41" s="5"/>
       <c r="U41" s="9"/>
     </row>
-    <row r="42" spans="4:21">
+    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D42" s="5"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="R42" s="5"/>
       <c r="U42" s="9"/>
     </row>
-    <row r="43" spans="4:21">
+    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D43" s="5"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="R43" s="5"/>
       <c r="U43" s="9"/>
     </row>
-    <row r="44" spans="4:21">
+    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D44" s="5"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="R44" s="5"/>
       <c r="U44" s="9"/>
     </row>
-    <row r="45" spans="4:21">
+    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D45" s="5"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="R45" s="5"/>
       <c r="U45" s="9"/>
     </row>
-    <row r="46" spans="4:21">
+    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D46" s="5"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="R46" s="5"/>
       <c r="U46" s="9"/>
     </row>
-    <row r="47" spans="4:21">
+    <row r="47" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D47" s="5"/>
       <c r="F47"/>
       <c r="G47"/>
       <c r="R47" s="5"/>
       <c r="U47" s="9"/>
     </row>
-    <row r="48" spans="4:21">
+    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D48" s="5"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="R48" s="5"/>
       <c r="U48" s="9"/>
     </row>
-    <row r="49" spans="4:21">
+    <row r="49" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D49" s="5"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="U49" s="9"/>
     </row>
-    <row r="50" spans="4:21">
+    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D50" s="5"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="U50" s="9"/>
     </row>
-    <row r="51" spans="4:21">
+    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D51" s="5"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="U51" s="9"/>
     </row>
-    <row r="52" spans="4:21">
+    <row r="52" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D52" s="5"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="U52" s="9"/>
     </row>
-    <row r="53" spans="4:21">
+    <row r="53" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D53" s="5"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="U53" s="9"/>
     </row>
-    <row r="54" spans="4:21">
+    <row r="54" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D54" s="5"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="U54" s="9"/>
     </row>
-    <row r="55" spans="4:21">
+    <row r="55" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F55"/>
       <c r="G55"/>
       <c r="U55" s="9"/>
     </row>
-    <row r="56" spans="4:21">
+    <row r="56" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F56"/>
       <c r="G56"/>
       <c r="U56" s="9"/>
     </row>
-    <row r="57" spans="4:21">
+    <row r="57" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F57"/>
       <c r="G57"/>
       <c r="U57" s="9"/>
     </row>
-    <row r="58" spans="4:21">
+    <row r="58" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F58"/>
       <c r="G58"/>
       <c r="U58" s="9"/>
     </row>
-    <row r="59" spans="4:21">
+    <row r="59" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F59"/>
       <c r="G59"/>
       <c r="U59" s="9"/>
     </row>
-    <row r="60" spans="4:21">
+    <row r="60" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F60"/>
       <c r="G60"/>
       <c r="U60" s="9"/>
     </row>
-    <row r="61" spans="4:21">
+    <row r="61" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F61"/>
       <c r="G61"/>
       <c r="U61" s="9"/>
     </row>
-    <row r="62" spans="4:21">
+    <row r="62" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F62"/>
       <c r="G62"/>
       <c r="U62" s="9"/>
     </row>
-    <row r="63" spans="4:21">
+    <row r="63" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F63"/>
       <c r="G63"/>
       <c r="U63" s="9"/>
     </row>
-    <row r="64" spans="4:21">
+    <row r="64" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="6:7">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="6:7">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="6:7">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="6:7">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="6:7">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="6:7">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="6:7">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="6:7">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="6:7">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="6:7">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="6:7">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="6:7">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="6:7">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="6:7">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="6:7">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="6:7">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="6:7">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="6:7">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="6:7">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="6:7">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="6:7">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="6:7">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="6:7">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="6:7">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="6:7">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="6:7">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="6:7">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="6:7">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="6:7">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="6:7">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="6:7">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="6:7">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="6:7">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="6:7">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="6:7">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="6:7">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="6:7">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="6:7">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="6:7">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="6:7">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="6:7">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="6:7">
+    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="6:7">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="6:7">
+    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="6:7">
+    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="6:7">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="6:7">
+    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="6:7">
+    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="6:7">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="6:7">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="6:7">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="6:7">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F116"/>
       <c r="G116"/>
     </row>
@@ -3337,62 +3339,69 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="35.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="26" customFormat="1">
+    <row r="2" spans="2:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>121</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="24" customFormat="1">
+    <row r="3" spans="2:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>180</v>
       </c>
       <c r="C3" s="25"/>
-    </row>
-    <row r="4" spans="2:4" s="24" customFormat="1">
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="2:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>181</v>
       </c>
       <c r="C4" s="25"/>
-    </row>
-    <row r="5" spans="2:4" s="24" customFormat="1">
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="2:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="25"/>
-    </row>
-    <row r="6" spans="2:4" s="24" customFormat="1">
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="2:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>204</v>
       </c>
       <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="2:4" s="24" customFormat="1">
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="2:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>182</v>
       </c>
       <c r="C7" s="25"/>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>85</v>
       </c>
@@ -3400,105 +3409,105 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>80</v>
       </c>
@@ -3506,7 +3515,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>81</v>
       </c>
@@ -3514,242 +3523,252 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="30">
+    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30">
+    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30">
+    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="30">
+    <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="30">
+    <row r="37" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="30">
+    <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="45">
+    <row r="44" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3"/>
+      <c r="E44" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="30">
+    <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3"/>
+      <c r="E45" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="30">
+    <row r="46" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="45">
+    <row r="47" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="2:4">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="2:3">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="2:3" ht="60">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="2:3">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="2:3" ht="60">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="60">
+    <row r="53" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="54" spans="2:3">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="30">
+    <row r="60" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="45">
+    <row r="62" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="45">
+    <row r="63" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="30">
+    <row r="64" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" s="8" t="s">
         <v>208</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E56">
       <formula1>"Pass, Fail, clarification"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3759,20 +3778,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="48.5703125" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="345">
+    <row r="3" spans="3:4" ht="345" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>103</v>
       </c>
@@ -3780,7 +3799,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="240">
+    <row r="4" spans="3:4" ht="240" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>102</v>
       </c>
@@ -3788,11 +3807,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="3:4" ht="330">
+    <row r="6" spans="3:4" ht="330" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>105</v>
       </c>
